--- a/biology/Botanique/Filière_noisette/Filière_noisette.xlsx
+++ b/biology/Botanique/Filière_noisette/Filière_noisette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La notion de filière de la noisette est une macro-filière, qui désigne globalement toute la chaine des acteurs qui produisent, transforment, commercialisent la noisette.
 La noisette est un fruit issu d'un noisetier. Sa récolte s’effectue d’aout à octobre suivant les variétés et le bassin de production. 
-La production nationale française représente quelque 10 000 tonnes pour 4 528 ha en 2013[1], l'Aquitaine, et plus particulièrement Unicoque à Cancon, représente 98 % de la production française (qui a pour projet 20 000 t/an en 2020). 
-La France se situe à la 7e place mondiale, c'est un petit producteur face à la Turquie qui est le premier producteur (600 000 à 900 000 t/an) mais qui depuis quelque temps subit une baisse de production, du fait d'une météo désastreuse[2].
+La production nationale française représente quelque 10 000 tonnes pour 4 528 ha en 2013, l'Aquitaine, et plus particulièrement Unicoque à Cancon, représente 98 % de la production française (qui a pour projet 20 000 t/an en 2020). 
+La France se situe à la 7e place mondiale, c'est un petit producteur face à la Turquie qui est le premier producteur (600 000 à 900 000 t/an) mais qui depuis quelque temps subit une baisse de production, du fait d'une météo désastreuse.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,9 +526,11 @@
           <t>Historique de la culture en France</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’histoire de la culture de ce fruit sec est récente, avec la plantation en France des premiers vergers intensifs en 1970. Ils ont été créés grâce aux travaux de l’institut national de la recherche agronomique (INRA)[3], du centre technique interprofessionnel des fruits et légumes (CTIFL)[4], de l'institut national de recherche en sciences et technologies pour l'environnement et l'agriculture (IRSTEA)[5] et de l’association nationale des producteurs de noisettes (ANPN), qui ont permis de mieux maitriser les techniques culturales et de créer de nouvelles variétés. Cette culture reste toutefois modeste en France, car elle ne représente que 250 producteurs sur 40 départements.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’histoire de la culture de ce fruit sec est récente, avec la plantation en France des premiers vergers intensifs en 1970. Ils ont été créés grâce aux travaux de l’institut national de la recherche agronomique (INRA), du centre technique interprofessionnel des fruits et légumes (CTIFL), de l'institut national de recherche en sciences et technologies pour l'environnement et l'agriculture (IRSTEA) et de l’association nationale des producteurs de noisettes (ANPN), qui ont permis de mieux maitriser les techniques culturales et de créer de nouvelles variétés. Cette culture reste toutefois modeste en France, car elle ne représente que 250 producteurs sur 40 départements.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Caractéristiques du fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La noisette est un petit fruit, qui a un gout subtil et légèrement lacté avec une texture qui se révèle raffinée pour une noisette fraîche. Elle est bien dotée en vitamines ainsi qu'en nutriments bénéfiques pour l'organisme. Une noisette sèche possède un croquant fruité, c'est un fruit gourmand qui possède une qualité nutritionnelle excellente (taux élevé en huiles).
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,12 +592,14 @@
           <t>Contexte pédoclimatique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le noisetier est implanté dans un type de sol argilo-calcaire ou argilo-siliceux, avec un pH compris entre 6 et 8. Le taux de calcaire actif devrait être inférieur à 10 %[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le noisetier est implanté dans un type de sol argilo-calcaire ou argilo-siliceux, avec un pH compris entre 6 et 8. Le taux de calcaire actif devrait être inférieur à 10 %.
 La présence d’un drainage est souvent nécessaire. Une pluviométrie de 1 000 mm répartie sur toute l’année serait idéale.
-La mise en place de la culture nécessite un décompactage en profondeur du sol avant plantation, qui facilite l'ancrage du plant et favorise la circulation de l'eau. Il faut apporter des éléments minéraux (azote : 13,5 kg/tonne de fruits ; phosphore : 3,5 kg/tonne de fruits ; potasse : 7,5 kg/tonne de fruit ; magnésium : 1,55 kg/tonne de fruit). La plantation doit se faire par un temps sec, avec une densité de plantation de 660 arbres/ha. La culture doit être plantée sur un sol plat pour une meilleure utilisation de machine lors de la récolte. Pour l'irrigation, il vaut mieux utiliser le goutte à goutte. Il est conseillé qu'il soit quotidien et fractionné, avec un apport de 8 à 12 L/arbre/jour[7].
-Pour assurer une bonne pollinisation, le plant pollinisateur ne doit pas être planté à plus de 25 mètres des variétés à polliniser[8].
+La mise en place de la culture nécessite un décompactage en profondeur du sol avant plantation, qui facilite l'ancrage du plant et favorise la circulation de l'eau. Il faut apporter des éléments minéraux (azote : 13,5 kg/tonne de fruits ; phosphore : 3,5 kg/tonne de fruits ; potasse : 7,5 kg/tonne de fruit ; magnésium : 1,55 kg/tonne de fruit). La plantation doit se faire par un temps sec, avec une densité de plantation de 660 arbres/ha. La culture doit être plantée sur un sol plat pour une meilleure utilisation de machine lors de la récolte. Pour l'irrigation, il vaut mieux utiliser le goutte à goutte. Il est conseillé qu'il soit quotidien et fractionné, avec un apport de 8 à 12 L/arbre/jour.
+Pour assurer une bonne pollinisation, le plant pollinisateur ne doit pas être planté à plus de 25 mètres des variétés à polliniser.
 Pour les conditions climatiques; le vent est un facteur important pour la pollinisation de la culture de la noisette, car celui-ci sert à transporter le pollen. Le vent violent peut nuire à la pollinisation et au développement des bourgeons. La culture n'est pas adaptée à tous les climats. 
 Le vent est le principal agent de pollinisation pour les noisetiers, car son pollen est très facilement véhiculé par le vent. Grâce à ce dernier, le pollen peut atteindre une distance de 15 à 20 mètres du point d'émission. Les insectes ne jouent aucun rôle dans la pollinisation. Celle-ci est assurée par le vent.
 Les températures relativement basses sont un facteur favorable, pour avoir un pollen de bonne qualité et d'une bonne germination du grain de pollen.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,11 +633,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La noisette en France
-Elle est répartie en régions, dont les 2 plus grandes sont la région Aquitaine, avec 2 767 hectares pour une production de 4 150 tonnes de noisettes récoltées en 2013, soit 54 % de la production nationale, et la région Midi-Pyrénées, avec ses 832 hectares pour une production de 2 106 tonnes de noisettes récoltées en 2013, soit 27 % de la production nationale. 
+          <t>La noisette en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est répartie en régions, dont les 2 plus grandes sont la région Aquitaine, avec 2 767 hectares pour une production de 4 150 tonnes de noisettes récoltées en 2013, soit 54 % de la production nationale, et la région Midi-Pyrénées, avec ses 832 hectares pour une production de 2 106 tonnes de noisettes récoltées en 2013, soit 27 % de la production nationale. 
 En 3e position vient la Haute-Corse, avec un label IGP de noisette de Cervione, le seul label en France. Puis vient la région Rhône-Alpes.
-Investissement dans le verger
-Le total du coût financier avant d'être en pleine production est à 14 974 euros[10].
 </t>
         </is>
       </c>
@@ -630,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,13 +666,18 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Culture avec des moyens utilisés très particuliers</t>
+          <t>Dimension économique</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La culture de la noisette nécessite des moyens très particuliers[11][réf. nécessaire].
-Voici un tableau qui récapitule le type de travail à effectuer sur les noisetiers avec l'équivalent d'heures/ha et ainsi que les différentes périodes où ces travaux sont à effectuer. Cela montre que la production de noisettes demande très peu de travail pour le producteur et les salariés. C'est une culture qui demande peu d'heure de travail pour un rendement élevé.
+          <t>Investissement dans le verger</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le total du coût financier avant d'être en pleine production est à 14 974 euros.
 </t>
         </is>
       </c>
@@ -662,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,10 +703,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Marge brute</t>
+          <t>Culture avec des moyens utilisés très particuliers</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La culture de la noisette nécessite des moyens très particuliers[réf. nécessaire].
+Voici un tableau qui récapitule le type de travail à effectuer sur les noisetiers avec l'équivalent d'heures/ha et ainsi que les différentes périodes où ces travaux sont à effectuer. Cela montre que la production de noisettes demande très peu de travail pour le producteur et les salariés. C'est une culture qui demande peu d'heure de travail pour un rendement élevé.
+</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -688,7 +722,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -703,13 +737,46 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Marge brute</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Maladies et ravageurs sur la culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Maladies
-Les différentes maladies affectant l'arbre et le fruit[13] :
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Maladies</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les différentes maladies affectant l'arbre et le fruit :
 Les anthracnoses :
 Cryptosporiopsis et/ou Sphaceloma coryli sont les plus connues.
 Les différents symptômes :
@@ -721,9 +788,43 @@
 La nécrose bactérienne du noisetier :
 Maladie qui apparait sur les jeunes rameaux d'un an. Elle se forme sur l'apex et empêche le développement des bourgeons, elle peut causer la mort du rameau.
 Sur les feuilles apparition de taches avec un centre nécrosé de couleur brune entouré par un halo jaune.
-Méthode de lutte : utiliser des plants issus de marcottage exempts de maladie. Lorsque les plants sont atteints il est important d'éliminer les rameaux atteints, avec l'obligation de passage phytosanitaire de sulfate de cuivre, d'hydroxyde de cuivre ou d'oxyde cuivreux à la dose de 250 g/hl de cuivre métal.
-Ravageurs
-Le ver de la noisette :
+Méthode de lutte : utiliser des plants issus de marcottage exempts de maladie. Lorsque les plants sont atteints il est important d'éliminer les rameaux atteints, avec l'obligation de passage phytosanitaire de sulfate de cuivre, d'hydroxyde de cuivre ou d'oxyde cuivreux à la dose de 250 g/hl de cuivre métal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs sur la culture</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Ravageurs</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le ver de la noisette :
 C'est un petit charançon de couleur grise, il pique les jeunes noisettes au printemps pour se nourrir. C'est une porte ouverte pour des maladies (botrytis, monilia). À partir de la fin juillet, il y a une chute des noisettes à moitié dévorées par les larves.
 Méthode de lutte : comptage d'individus présents dans le verger. En avril, les producteurs secouent les arbres pour faire tomber les balanins qui sont recueillis dans un tissu clair relativement tendu. Opération à effectuer tous les jours durant 2 mois.
 Utilisation de pièges pyramidaux, pour limiter les contrôles de secouage des arbres. L'utilisation des produits à base de matière active (lambda-cyhalothrine à matière active karaté[Quoi ?] à 1,25 g/hl).
@@ -733,80 +834,8 @@
 Les pucerons verts des pousses :
 Dégâts constatés au niveau des noisettes et de leurs involucres (ce qui recouvre la noisette) car ils sont recouverts de miellat.
 Méthode de lutte : Produits phytosanitaires (pyrimicarbe à 37,5 g/hl de matière active).
-L'utilisation de ces produits ainsi que leurs dosages n'est exprimée que pour des professionnels ; pour des particuliers se référer au site e-phy où est répertorié tout ce qui concerne l'autorisation en marché de produits phytosanitaires, ainsi que leurs usages et leurs doses[14].
+L'utilisation de ces produits ainsi que leurs dosages n'est exprimée que pour des professionnels ; pour des particuliers se référer au site e-phy où est répertorié tout ce qui concerne l'autorisation en marché de produits phytosanitaires, ainsi que leurs usages et leurs doses.
 Lutte biologique : Lâchers d'hyménoptères.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Fili%C3%A8re_noisette</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Labels et le contexte règlementaire</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, seule la noisette de 'Cervione' en Haute-Corse bénéficie d'une Indication géographique protégée (IGP)[15].
-Deux autres productions européennes de noisette bénéficient d'un label : la noisette du Piémont en Italie (IGP) et la noisette de Reus en Espagne (Appellation d'origine protégée - AOP).
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Fili%C3%A8re_noisette</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Conditionnement du produit</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la récolte, les noisettes passent par différents moyens pour être conditionnées.
-La stabilisation du produit
-Il a pour rôle de compléter le nettoyage en éliminant les morceaux de bois, les cailloux, de laver les noisettes et enfin de les sécher. Toutes ces opérations s'effectuent dans des stations.
-Le calibrage des noisettes
-Elles sont calibrées en fonction des normes fixées au plan international dans lesquelles apparait aussi la notion de criblage.
-Il en existe 5 classes de calibre, celle de 2 mm de -18 mm à + 24 mm. Celles de moins 13 mm sont classées comme déchets.
-Le cassage des noisettes
-L'opération consiste à décortiquer mécaniquement la noisette, comme décortiqueuse il y a la meule rotative ou a mouvements alternatif. Un autre système celui de la casseuse rotative est utilisé en France.
-Conservation des noisettes et des amandons
-Pour celle en coque, il existe 3 types de stockage, ordinaire, réfrigéré, sous température négative. Pour les noisettes décortiquées, elle présente quelques spécificités par rapport à la noisette en coques, celle où il faut un froid immédiat avec un risque d'attaque de teigne des fruits secs si la température dépasse 17-18 °C. Pour les amandons, il faut les stocker à part des autres fruits.
 </t>
         </is>
       </c>
@@ -817,7 +846,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -832,18 +861,15 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Opérateurs de mise en marché</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe une seule coopérative, UNICOQUE, et il existe aussi des agriculteurs indépendants.
-UNICOQUE[16] Coopérative leadeur du marché des fruits secs, grâce à une marque reconnue KOKI. Elle concentre 98 % de la production française de noisettes selon celle-ci .
-Elle regroupe 195 producteurs dans son réseau . En 2012, il y a eu un potentiel de 8 000 tonnes de noisettes pour 4 528 ha en 2013.
-Tout cela est acheté par différents organismes de commerce comme Ferrero, aussi dans l'industrie agroalimentaire, et en fruits de bouche. Ils sont vendus à des pays étranger (Asie, Europe de l’Est, Moyen-Orient).
-La filière nationale comporte 11,2 millions d'Euros, ce qui représente en volume 7 000 t[17].
-Le rôle de la coopérative, est de collecter la récolte pour réaliser les opérations de conditionnement du produit (calibrage, nettoyage, mise en sac).
-Son rôle passe aussi par l'aspect commercial mondial et de mettre sur le marché européen, la noisette après conditionnement.
+          <t>Labels et le contexte règlementaire</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, seule la noisette de 'Cervione' en Haute-Corse bénéficie d'une Indication géographique protégée (IGP).
+Deux autres productions européennes de noisette bénéficient d'un label : la noisette du Piémont en Italie (IGP) et la noisette de Reus en Espagne (Appellation d'origine protégée - AOP).
 </t>
         </is>
       </c>
@@ -854,7 +880,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -869,22 +895,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Marché de la noisette</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mondial
-Le marché mondial de la noisette est dominé par la Turquie pour la noisette décortiquée, c'est un pays qui produit 600 000 à 900 000 t/an (avec des vergers familiaux produisant moins de 1,5 t/ha) soit 80 % de la production mondiale.
-L’État de l’Oregon aux États-Unis, quant à lui, domine la noisette en coque avec 40 000 t (vergers de grandes surfaces et mécanisés)[réf. nécessaire]. Le deuxième producteur est l’Italie avec 100 000 à 130 000 t/an[réf. nécessaire].
-Depuis quelques années la Turquie, connait une forte baisse de la production ce qui est due aux aléas du climat, les autres pays producteurs de noisettes profitent de cette situation pour vendre leurs productions à un meilleur prix.
-Européen
-La production turque de noisettes est soutenue à partir de 2010, dans un cadre de système de subventions, qui fait partie d'une mesure économiques d’aide communautaire de l’instrument de pré-adhésion (IPA), un fonds européen destiné aux pays candidats dont la Turquie qui en a bénéficié. Les producteurs italiens, qui arrivent à la deuxième place au sein de la production mondiale après la Turquie, mais sont les premiers de l’Union européenne avec 1,1 million de quintaux de production par an. Le gouvernement italien est favorable à l’adhésion de la Turquie dans l’UE, mais cette adhésion peut avoir, dans certains domaines, comme la production de noisettes, des répercussions négatives pour son économie et celles des autres pays européen producteur de noisettes. Les fruits secs représentent à l’heure actuelle près du tiers des exportations agricoles turques vers l’Europe, ils constituent le premier groupe de produits alimentaires turcs entrant dans l’UE. En Italie, un tiers des noisettes transformées provient de Turquie[18]. Autre que les pays producteurs UNICOQUE domine le marché européen « grâce à la mécanisation à un marketing efficace et à une logistique sans faille »[19]
-France
-En France, la consommation annuelle de noisettes est de 20 000 t de noisettes décortiquées et les débouchés sont essentiellement la chocolaterie, la confiserie et la biscuiterie auxquelles il faut ajouter, 1 000 t écoulées en coque sur le marché intérieur. La France exporte près de 5 % (ce qui représente 1 000 t de la production française) de sa production essentiellement en coque vers l’Allemagne, mais elle importe 16 000 t d’amandons pour l’industrie.
-Aujourd’hui, la filière noisette de France poursuit son développement dans le cadre du projet développé par la coopérative UNICOQUE. Ce projet a pour objectif de doubler la production de noisettes en France pour atteindre le potentiel de 20 000 t à l’horizon 2020. Pour cela un programme de plantation 300 ha/an de noisetiers est lancé dans le cadre d’une démarche de filière qui est très bien organisée[20].
-L'inconvénient de cette filière est qu'elle est fortement dépendante des aléas climatiques, pour la production et la consommation des fruits. Le commerce de la noisette est ouvert au type de marchés internationaux et les Européens subissent une forte pression de différents pays producteurs sur les prix. La majorité des échanges français se réalisent au sein de l’Union européenne[21].
-L'impact de la noisette sur les marchés des fruits secs connait une croissance de la consommation vers les pays du Nord et les pays d'Asie. L'exportation française se dirige vers l'Amérique, l'Afrique, le Moyen-Orient, la Russie et l'Australie. La France exporte 1 300 000 t de fruits frais, soit 1 % de noisettes[22].
+          <t>Conditionnement du produit</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la récolte, les noisettes passent par différents moyens pour être conditionnées.
 </t>
         </is>
       </c>
@@ -895,7 +913,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -910,13 +928,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>La consommation</t>
+          <t>Conditionnement du produit</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t xml:space="preserve">La consommation de noisette est importante dans le monde, mais les consommateurs de noisette ont peur d'une augmentation du prix du Nutella, car ce dernier est à base de noisette. S'il y a augmentation du coût de la matière première, alors le prix du pot du Nutella sera plus cher.
-La marque Ferrero achète 80 % de la production turque qui est destinée à l'entreprise, en majeure partie pour la fabrication du Nutella, et elle achète environ un quart de la production mondiale[23].
+          <t>La stabilisation du produit</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a pour rôle de compléter le nettoyage en éliminant les morceaux de bois, les cailloux, de laver les noisettes et enfin de les sécher. Toutes ces opérations s'effectuent dans des stations.
 </t>
         </is>
       </c>
@@ -927,7 +950,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -942,13 +965,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Liens avec le territoire</t>
+          <t>Conditionnement du produit</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t xml:space="preserve">En France la filière de la noisette poursuit son développement dans le cadre du projet développé par la coopérative UNICOQUE. Ce projet a pour but de doubler la production de noisettes en France pour atteindre 20 000 tonnes de noisettes en 2020. Pour cela un programme de plantation de 300 ha/an de noisetiers est lancé dans un cadre d’une démarche de filière organisée. Le noisetier ne se produit pas partout, il est produit principalement dans le bassin du Sud-Ouest de la France en Lot-et-Garonne, en Tarn-et-Garonne et dans le Gers. Dans les autres régions de France, plus au Nord et en particulier en Bourgogne, la production risque d’être aléatoire du fait des gelées printanières et des températures basses du mois de juin lors de la fécondation (fruits vides). Le Sud est aussi à l'honneur ainsi que la Corse avec un label (IGP noisette de Cervione en haute Corse). Avec ses 4 528 hectares en 2013, les vergers de noisetiers poursuivent leurs progressions. Les deux grandes régions où se situe l'essentiel de la production dans la région Aquitaine et Midi-Pyrénées.
-Ces deux régions représentent à elles seules 81 % de la production française. En Bourgogne, on compte 5 ha de noisetier avec un rendement de 15 tonnes en 2013 ce qui représente 0,2 % de la production nationale. Les importations sont de 20 000 tonnes en 2013, dont 15 696 tonnes en provenance de Turquie[24].
+          <t>Le calibrage des noisettes</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont calibrées en fonction des normes fixées au plan international dans lesquelles apparait aussi la notion de criblage.
+Il en existe 5 classes de calibre, celle de 2 mm de -18 mm à + 24 mm. Celles de moins 13 mm sont classées comme déchets.
 </t>
         </is>
       </c>
@@ -959,7 +988,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fili%C3%A8re_noisette</t>
+          <t>Filière_noisette</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -974,12 +1003,315 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Conditionnement du produit</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Le cassage des noisettes</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'opération consiste à décortiquer mécaniquement la noisette, comme décortiqueuse il y a la meule rotative ou a mouvements alternatif. Un autre système celui de la casseuse rotative est utilisé en France.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Conditionnement du produit</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Conservation des noisettes et des amandons</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour celle en coque, il existe 3 types de stockage, ordinaire, réfrigéré, sous température négative. Pour les noisettes décortiquées, elle présente quelques spécificités par rapport à la noisette en coques, celle où il faut un froid immédiat avec un risque d'attaque de teigne des fruits secs si la température dépasse 17-18 °C. Pour les amandons, il faut les stocker à part des autres fruits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Opérateurs de mise en marché</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe une seule coopérative, UNICOQUE, et il existe aussi des agriculteurs indépendants.
+UNICOQUE Coopérative leadeur du marché des fruits secs, grâce à une marque reconnue KOKI. Elle concentre 98 % de la production française de noisettes selon celle-ci .
+Elle regroupe 195 producteurs dans son réseau . En 2012, il y a eu un potentiel de 8 000 tonnes de noisettes pour 4 528 ha en 2013.
+Tout cela est acheté par différents organismes de commerce comme Ferrero, aussi dans l'industrie agroalimentaire, et en fruits de bouche. Ils sont vendus à des pays étranger (Asie, Europe de l’Est, Moyen-Orient).
+La filière nationale comporte 11,2 millions d'Euros, ce qui représente en volume 7 000 t.
+Le rôle de la coopérative, est de collecter la récolte pour réaliser les opérations de conditionnement du produit (calibrage, nettoyage, mise en sac).
+Son rôle passe aussi par l'aspect commercial mondial et de mettre sur le marché européen, la noisette après conditionnement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Marché de la noisette</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mondial</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le marché mondial de la noisette est dominé par la Turquie pour la noisette décortiquée, c'est un pays qui produit 600 000 à 900 000 t/an (avec des vergers familiaux produisant moins de 1,5 t/ha) soit 80 % de la production mondiale.
+L’État de l’Oregon aux États-Unis, quant à lui, domine la noisette en coque avec 40 000 t (vergers de grandes surfaces et mécanisés)[réf. nécessaire]. Le deuxième producteur est l’Italie avec 100 000 à 130 000 t/an[réf. nécessaire].
+Depuis quelques années la Turquie, connait une forte baisse de la production ce qui est due aux aléas du climat, les autres pays producteurs de noisettes profitent de cette situation pour vendre leurs productions à un meilleur prix.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Marché de la noisette</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Européen</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production turque de noisettes est soutenue à partir de 2010, dans un cadre de système de subventions, qui fait partie d'une mesure économiques d’aide communautaire de l’instrument de pré-adhésion (IPA), un fonds européen destiné aux pays candidats dont la Turquie qui en a bénéficié. Les producteurs italiens, qui arrivent à la deuxième place au sein de la production mondiale après la Turquie, mais sont les premiers de l’Union européenne avec 1,1 million de quintaux de production par an. Le gouvernement italien est favorable à l’adhésion de la Turquie dans l’UE, mais cette adhésion peut avoir, dans certains domaines, comme la production de noisettes, des répercussions négatives pour son économie et celles des autres pays européen producteur de noisettes. Les fruits secs représentent à l’heure actuelle près du tiers des exportations agricoles turques vers l’Europe, ils constituent le premier groupe de produits alimentaires turcs entrant dans l’UE. En Italie, un tiers des noisettes transformées provient de Turquie. Autre que les pays producteurs UNICOQUE domine le marché européen « grâce à la mécanisation à un marketing efficace et à une logistique sans faille »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Marché de la noisette</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Européen</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, la consommation annuelle de noisettes est de 20 000 t de noisettes décortiquées et les débouchés sont essentiellement la chocolaterie, la confiserie et la biscuiterie auxquelles il faut ajouter, 1 000 t écoulées en coque sur le marché intérieur. La France exporte près de 5 % (ce qui représente 1 000 t de la production française) de sa production essentiellement en coque vers l’Allemagne, mais elle importe 16 000 t d’amandons pour l’industrie.
+Aujourd’hui, la filière noisette de France poursuit son développement dans le cadre du projet développé par la coopérative UNICOQUE. Ce projet a pour objectif de doubler la production de noisettes en France pour atteindre le potentiel de 20 000 t à l’horizon 2020. Pour cela un programme de plantation 300 ha/an de noisetiers est lancé dans le cadre d’une démarche de filière qui est très bien organisée.
+L'inconvénient de cette filière est qu'elle est fortement dépendante des aléas climatiques, pour la production et la consommation des fruits. Le commerce de la noisette est ouvert au type de marchés internationaux et les Européens subissent une forte pression de différents pays producteurs sur les prix. La majorité des échanges français se réalisent au sein de l’Union européenne.
+L'impact de la noisette sur les marchés des fruits secs connait une croissance de la consommation vers les pays du Nord et les pays d'Asie. L'exportation française se dirige vers l'Amérique, l'Afrique, le Moyen-Orient, la Russie et l'Australie. La France exporte 1 300 000 t de fruits frais, soit 1 % de noisettes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>La consommation</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La consommation de noisette est importante dans le monde, mais les consommateurs de noisette ont peur d'une augmentation du prix du Nutella, car ce dernier est à base de noisette. S'il y a augmentation du coût de la matière première, alors le prix du pot du Nutella sera plus cher.
+La marque Ferrero achète 80 % de la production turque qui est destinée à l'entreprise, en majeure partie pour la fabrication du Nutella, et elle achète environ un quart de la production mondiale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liens avec le territoire</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France la filière de la noisette poursuit son développement dans le cadre du projet développé par la coopérative UNICOQUE. Ce projet a pour but de doubler la production de noisettes en France pour atteindre 20 000 tonnes de noisettes en 2020. Pour cela un programme de plantation de 300 ha/an de noisetiers est lancé dans un cadre d’une démarche de filière organisée. Le noisetier ne se produit pas partout, il est produit principalement dans le bassin du Sud-Ouest de la France en Lot-et-Garonne, en Tarn-et-Garonne et dans le Gers. Dans les autres régions de France, plus au Nord et en particulier en Bourgogne, la production risque d’être aléatoire du fait des gelées printanières et des températures basses du mois de juin lors de la fécondation (fruits vides). Le Sud est aussi à l'honneur ainsi que la Corse avec un label (IGP noisette de Cervione en haute Corse). Avec ses 4 528 hectares en 2013, les vergers de noisetiers poursuivent leurs progressions. Les deux grandes régions où se situe l'essentiel de la production dans la région Aquitaine et Midi-Pyrénées.
+Ces deux régions représentent à elles seules 81 % de la production française. En Bourgogne, on compte 5 ha de noisetier avec un rendement de 15 tonnes en 2013 ce qui représente 0,2 % de la production nationale. Les importations sont de 20 000 tonnes en 2013, dont 15 696 tonnes en provenance de Turquie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Filière_noisette</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fili%C3%A8re_noisette</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
           <t>Quelques variétés de noisetier</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les variétés du noisetier[25] :
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les variétés du noisetier :
 </t>
         </is>
       </c>
